--- a/backend/data/detalle_venta.xlsx
+++ b/backend/data/detalle_venta.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2122,9 +2122,749 @@
         <v>1100</v>
       </c>
     </row>
+    <row r="87">
+      <c r="A87">
+        <v>89</v>
+      </c>
+      <c r="B87">
+        <v>56</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>7500</v>
+      </c>
+      <c r="F87">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>90</v>
+      </c>
+      <c r="B88">
+        <v>57</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>1000</v>
+      </c>
+      <c r="F88">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>91</v>
+      </c>
+      <c r="B89">
+        <v>57</v>
+      </c>
+      <c r="C89">
+        <v>10</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89">
+        <v>3000</v>
+      </c>
+      <c r="F89">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>92</v>
+      </c>
+      <c r="B90">
+        <v>58</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>2000</v>
+      </c>
+      <c r="F90">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>93</v>
+      </c>
+      <c r="B91">
+        <v>58</v>
+      </c>
+      <c r="C91">
+        <v>10</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>1500</v>
+      </c>
+      <c r="F91">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>94</v>
+      </c>
+      <c r="B92">
+        <v>58</v>
+      </c>
+      <c r="C92">
+        <v>8</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>4000</v>
+      </c>
+      <c r="F92">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>95</v>
+      </c>
+      <c r="B93">
+        <v>59</v>
+      </c>
+      <c r="C93">
+        <v>8</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>4000</v>
+      </c>
+      <c r="F93">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>96</v>
+      </c>
+      <c r="B94">
+        <v>59</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>7500</v>
+      </c>
+      <c r="F94">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>97</v>
+      </c>
+      <c r="B95">
+        <v>59</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>1000</v>
+      </c>
+      <c r="F95">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>98</v>
+      </c>
+      <c r="B96">
+        <v>60</v>
+      </c>
+      <c r="C96">
+        <v>10</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>1500</v>
+      </c>
+      <c r="F96">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>99</v>
+      </c>
+      <c r="B97">
+        <v>61</v>
+      </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>1000</v>
+      </c>
+      <c r="F97">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>100</v>
+      </c>
+      <c r="B98">
+        <v>61</v>
+      </c>
+      <c r="C98">
+        <v>8</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>4000</v>
+      </c>
+      <c r="F98">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>101</v>
+      </c>
+      <c r="B99">
+        <v>61</v>
+      </c>
+      <c r="C99">
+        <v>10</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>1500</v>
+      </c>
+      <c r="F99">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>102</v>
+      </c>
+      <c r="B100">
+        <v>62</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100">
+        <v>2000</v>
+      </c>
+      <c r="F100">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>103</v>
+      </c>
+      <c r="B101">
+        <v>62</v>
+      </c>
+      <c r="C101">
+        <v>11</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1000</v>
+      </c>
+      <c r="F101">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>104</v>
+      </c>
+      <c r="B102">
+        <v>63</v>
+      </c>
+      <c r="C102">
+        <v>3</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102">
+        <v>2000</v>
+      </c>
+      <c r="F102">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>105</v>
+      </c>
+      <c r="B103">
+        <v>64</v>
+      </c>
+      <c r="C103">
+        <v>11</v>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+      <c r="E103">
+        <v>3000</v>
+      </c>
+      <c r="F103">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>106</v>
+      </c>
+      <c r="B104">
+        <v>64</v>
+      </c>
+      <c r="C104">
+        <v>11</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>1000</v>
+      </c>
+      <c r="F104">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>107</v>
+      </c>
+      <c r="B105">
+        <v>64</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105">
+        <v>2000</v>
+      </c>
+      <c r="F105">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>108</v>
+      </c>
+      <c r="B106">
+        <v>65</v>
+      </c>
+      <c r="C106">
+        <v>10</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106">
+        <v>3000</v>
+      </c>
+      <c r="F106">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>109</v>
+      </c>
+      <c r="B107">
+        <v>65</v>
+      </c>
+      <c r="C107">
+        <v>3</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107">
+        <v>2000</v>
+      </c>
+      <c r="F107">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>110</v>
+      </c>
+      <c r="B108">
+        <v>65</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>7500</v>
+      </c>
+      <c r="F108">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>111</v>
+      </c>
+      <c r="B109">
+        <v>66</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109">
+        <v>2000</v>
+      </c>
+      <c r="F109">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>112</v>
+      </c>
+      <c r="B110">
+        <v>66</v>
+      </c>
+      <c r="C110">
+        <v>10</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>1500</v>
+      </c>
+      <c r="F110">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>113</v>
+      </c>
+      <c r="B111">
+        <v>67</v>
+      </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>1000</v>
+      </c>
+      <c r="F111">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>114</v>
+      </c>
+      <c r="B112">
+        <v>67</v>
+      </c>
+      <c r="C112">
+        <v>11</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112">
+        <v>2000</v>
+      </c>
+      <c r="F112">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>115</v>
+      </c>
+      <c r="B113">
+        <v>68</v>
+      </c>
+      <c r="C113">
+        <v>8</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113">
+        <v>8000</v>
+      </c>
+      <c r="F113">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>116</v>
+      </c>
+      <c r="B114">
+        <v>68</v>
+      </c>
+      <c r="C114">
+        <v>11</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114">
+        <v>2000</v>
+      </c>
+      <c r="F114">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>117</v>
+      </c>
+      <c r="B115">
+        <v>69</v>
+      </c>
+      <c r="C115">
+        <v>11</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>1000</v>
+      </c>
+      <c r="F115">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>118</v>
+      </c>
+      <c r="B116">
+        <v>70</v>
+      </c>
+      <c r="C116">
+        <v>10</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116">
+        <v>3000</v>
+      </c>
+      <c r="F116">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>119</v>
+      </c>
+      <c r="B117">
+        <v>70</v>
+      </c>
+      <c r="C117">
+        <v>3</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="E117">
+        <v>2000</v>
+      </c>
+      <c r="F117">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>120</v>
+      </c>
+      <c r="B118">
+        <v>71</v>
+      </c>
+      <c r="C118">
+        <v>11</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>1000</v>
+      </c>
+      <c r="F118">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>121</v>
+      </c>
+      <c r="B119">
+        <v>72</v>
+      </c>
+      <c r="C119">
+        <v>10</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>1500</v>
+      </c>
+      <c r="F119">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>122</v>
+      </c>
+      <c r="B120">
+        <v>72</v>
+      </c>
+      <c r="C120">
+        <v>3</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>1000</v>
+      </c>
+      <c r="F120">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>123</v>
+      </c>
+      <c r="B121">
+        <v>73</v>
+      </c>
+      <c r="C121">
+        <v>9</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121">
+        <v>2000</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>124</v>
+      </c>
+      <c r="B122">
+        <v>74</v>
+      </c>
+      <c r="C122">
+        <v>3</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>1000</v>
+      </c>
+      <c r="F122">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>125</v>
+      </c>
+      <c r="B123">
+        <v>75</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>7500</v>
+      </c>
+      <c r="F123">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F86"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F123"/>
   </ignoredErrors>
 </worksheet>
 </file>